--- a/data/updated_people.xlsx
+++ b/data/updated_people.xlsx
@@ -1847,7 +1847,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>transportation</t>
+          <t>Transportation</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>hospitality</t>
+          <t>Hospitality</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>hospitality</t>
+          <t>Hospitality</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Hospitality</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>hospitality</t>
+          <t>Hospitality</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>healthcare</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>healthcare</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -13397,7 +13397,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>hospitality</t>
+          <t>Hospitality</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -14279,7 +14279,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -14321,7 +14321,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -14531,7 +14531,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -14615,7 +14615,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -15833,7 +15833,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -16169,7 +16169,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -16715,7 +16715,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -16841,7 +16841,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>hospitality</t>
+          <t>Hospitality</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -18395,7 +18395,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -20075,7 +20075,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -20243,7 +20243,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -20411,7 +20411,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">

--- a/data/updated_people.xlsx
+++ b/data/updated_people.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H502"/>
+  <dimension ref="A1:J502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,16 @@
           <t>Client ID</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Total Industry Revenue</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -516,6 +526,14 @@
           <t>Fernando Myers @ Martin-Gates</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -558,6 +576,14 @@
           <t>Danielle Sheppard @ Brown-Pugh</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -600,6 +626,14 @@
           <t>Christian Castillo @ Brown-Hawkins</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -642,6 +676,14 @@
           <t>Christopher Miller @ Burns and Sons</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -684,6 +726,14 @@
           <t>Larry Mata @ Anderson-Morris</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -726,6 +776,14 @@
           <t>Jared Barnes @ Harris-Chapman</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -760,13 +818,21 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>engaged</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>Anne Jones @ Cervantes</t>
         </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>2173.5</v>
       </c>
     </row>
     <row r="9">
@@ -810,6 +876,14 @@
           <t>Brandon Bradshaw @ Cervantes</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -852,6 +926,14 @@
           <t>Gloria Pitts @ Galvan Group</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -894,6 +976,14 @@
           <t>Tyler Norton @ Ramos-Montgomery</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -936,6 +1026,14 @@
           <t>Robert Reynolds @ Montgomery-Brady</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -978,6 +1076,14 @@
           <t>Madison Carson PhD @ Kelly Inc</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1020,6 +1126,14 @@
           <t>Jason Lewis @ Henderson-Silva</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1062,6 +1176,14 @@
           <t>Brandi Collins @ Ballard Inc</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1104,6 +1226,14 @@
           <t>Phillip Hayden @ Soto LLC</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1146,6 +1276,14 @@
           <t>Heather Sherman @ Gay-Stevenson</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1188,6 +1326,14 @@
           <t>Aaron Nguyen @ Diaz PLC</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1230,6 +1376,14 @@
           <t>Dominique Orozco @ Saunders-Nichols</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1272,6 +1426,14 @@
           <t>Robert King @ Coleman, Jones and Keith</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1314,6 +1476,14 @@
           <t>Courtney Stone @ Tucker Ltd</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1356,6 +1526,14 @@
           <t>William Smith @ Allen Inc</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1398,6 +1576,14 @@
           <t>Terry Waters @ Jones PLC</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1440,6 +1626,14 @@
           <t>Peter Dennis @ Bell, Dean and Oneill</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1482,6 +1676,14 @@
           <t>Christian Lawrence @ Cervantes</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1524,6 +1726,14 @@
           <t>Jill Grimes @ Hunt-Reed</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1566,6 +1776,14 @@
           <t>Taylor Perez @ Bean Inc</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1608,6 +1826,14 @@
           <t>Tammy Johnson @ Cooper, Pineda and Whitney</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1650,6 +1876,14 @@
           <t>Manuel Hurst @ Mack Group</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1692,6 +1926,14 @@
           <t>Kendra Floyd @ Montes-Barnes</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1734,6 +1976,14 @@
           <t>Ashley Montgomery @ Shepherd-Davis</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1776,6 +2026,14 @@
           <t>Christina Wilson @ Martinez Inc</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1818,6 +2076,14 @@
           <t>Derek Kennedy @ Shepard PLC</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1860,6 +2126,14 @@
           <t>Nathan Melendez @ Burns and Sons</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>2432.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1902,6 +2176,14 @@
           <t>Dustin Wilson @ Tate LLC</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1944,6 +2226,14 @@
           <t>Melissa Eaton @ Guerra-Garcia</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1986,6 +2276,14 @@
           <t>Mr. Jay Harris @ Moreno Ltd</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2028,6 +2326,14 @@
           <t>Stephanie George @ Russo, Moran and Hoffman</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2070,6 +2376,14 @@
           <t>Jennifer Harris @ Olson-Sanders</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2112,6 +2426,14 @@
           <t>Patrick Ford @ Martinez, Kim and Howard</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2154,6 +2476,14 @@
           <t>Chelsea Holland @ Myers LLC</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2196,6 +2526,14 @@
           <t>Leslie Chase @ Rose Ltd</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2238,6 +2576,14 @@
           <t>Daniel Hernandez @ Glover-Rivera</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2280,6 +2626,14 @@
           <t>Christine Ayers @ Tate LLC</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2322,6 +2676,14 @@
           <t>Sonia Stevens @ Galvan Group</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2364,6 +2726,14 @@
           <t>Mary Rogers @ Leon and Sons</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2406,6 +2776,14 @@
           <t>Anthony Wilson @ Russo, Moran and Hoffman</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2448,6 +2826,14 @@
           <t>Michael Greene @ Glover-Rivera</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2490,6 +2876,14 @@
           <t>Thomas Lawson @ Evans and Sons</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2532,6 +2926,14 @@
           <t>Adam Alexander @ Riley, Edwards and Calderon</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2574,6 +2976,14 @@
           <t>Stephanie Hobbs @ Miller, Howard and Burton</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2616,6 +3026,14 @@
           <t>Carlos Roman @ Hernandez-Woods</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2658,6 +3076,14 @@
           <t>Katelyn Williams @ Moore, Warren and Morris</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2700,6 +3126,14 @@
           <t>Eric Hunt @ James LLC</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2742,6 +3176,14 @@
           <t>Tyrone Hernandez DDS @ Rodriguez PLC</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2784,6 +3226,14 @@
           <t>Joseph Jones @ Hernandez-Woods</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2826,6 +3276,14 @@
           <t>Anthony Pierce @ Shepherd-Davis</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2868,6 +3326,14 @@
           <t>Nicole Martinez @ Ortiz-Pham</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2910,6 +3376,14 @@
           <t>Toni Ayala @ Gay-Stevenson</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2952,6 +3426,14 @@
           <t>Wyatt Berry @ Martinez, Kim and Howard</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2994,6 +3476,14 @@
           <t>Eileen Park @ Clay, Smith and Phillips</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3036,6 +3526,14 @@
           <t>Heather Gutierrez @ Burns and Sons</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3078,6 +3576,14 @@
           <t>Colton Jones @ Hernandez-Briggs</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3120,6 +3626,14 @@
           <t>Darin Martinez @ Gonzales, Miller and Sanchez</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3162,6 +3676,14 @@
           <t>Tina Mccarthy @ Baker, Mcdaniel and Cruz</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3204,6 +3726,14 @@
           <t>Troy Brewer @ Miller, Howard and Burton</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3246,6 +3776,8 @@
           <t>Brian Diaz @ Casey-Stephenson</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3288,6 +3820,14 @@
           <t>Taylor Gibson @ Evans and Sons</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3330,6 +3870,14 @@
           <t>James Sexton @ Brown-Pugh</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3372,6 +3920,14 @@
           <t>Eric Farley @ Hardin PLC</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3414,6 +3970,14 @@
           <t>Angelica Taylor @ Young-Garcia</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3456,6 +4020,14 @@
           <t>Kendra Kelly @ Ramirez PLC</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3498,6 +4070,14 @@
           <t>Rebecca Turner @ Glover-Rivera</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3540,6 +4120,14 @@
           <t>Eric Tucker @ James LLC</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3582,6 +4170,14 @@
           <t>Christopher Rose @ Bass, Ortiz and Fitzpatrick</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3624,6 +4220,14 @@
           <t>Christina Benson @ Gay-Stevenson</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3666,6 +4270,14 @@
           <t>Jeremy Flores @ Martin-Gates</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3708,6 +4320,14 @@
           <t>Jennifer Williams @ Davies Group</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3750,6 +4370,14 @@
           <t>Brooke Lewis @ Hernandez-Briggs</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3792,6 +4420,14 @@
           <t>Nicole Noble @ Lynch, Harris and Cook</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3834,6 +4470,14 @@
           <t>Susan Barker @ Wood-Jarvis</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3876,6 +4520,14 @@
           <t>Justin Burgess @ Gross-Kennedy</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3918,6 +4570,14 @@
           <t>Phillip Hardy @ Mack Group</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3960,6 +4620,14 @@
           <t>Heidi Green @ Montes-Barnes</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4002,6 +4670,14 @@
           <t>Ricky Chan @ Adams LLC</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4044,6 +4720,14 @@
           <t>Candice Riley @ Clay, Smith and Phillips</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4086,6 +4770,14 @@
           <t>Heather Marsh @ Adams LLC</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4128,6 +4820,14 @@
           <t>Natalie Baker @ Casey-Stephenson</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4170,6 +4870,14 @@
           <t>Mary Anderson @ Hernandez-Briggs</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4212,6 +4920,14 @@
           <t>Ryan Griffin @ Rodriguez PLC</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4254,6 +4970,14 @@
           <t>Janet Andrews @ Hardin PLC</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4296,6 +5020,14 @@
           <t>Andrew Snow @ Moore, Warren and Morris</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4338,6 +5070,14 @@
           <t>Paula Hurley @ Whitehead-Bell</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4380,6 +5120,14 @@
           <t>Kyle Sutton @ Davies Group</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4422,6 +5170,14 @@
           <t>Jeffrey Flores @ Tate LLC</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4464,6 +5220,14 @@
           <t>Cindy Cook @ Allen Inc</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4506,6 +5270,14 @@
           <t>Linda Jones @ Shepherd-Davis</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4548,6 +5320,14 @@
           <t>Leslie Hammond @ Coleman, Jones and Keith</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4590,6 +5370,14 @@
           <t>Elizabeth Wheeler @ Bass, Ortiz and Fitzpatrick</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4632,6 +5420,8 @@
           <t>Keith Walters @ Casey-Stephenson</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4674,6 +5464,14 @@
           <t>Sarah Stafford @ Martinez Ltd</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4716,6 +5514,14 @@
           <t>Molly Hill @ Campos-Boyd</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4758,6 +5564,14 @@
           <t>Aaron Weaver @ Russo, Moran and Hoffman</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4800,6 +5614,14 @@
           <t>Christopher Daniel @ Shepard PLC</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4842,6 +5664,14 @@
           <t>Dr. Jenna Crawford @ Coleman, Jones and Keith</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4884,6 +5714,14 @@
           <t>Thomas Drake @ Riley, Edwards and Calderon</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4926,6 +5764,14 @@
           <t>Taylor Cantu @ Myers LLC</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4968,6 +5814,14 @@
           <t>Alyssa Martin @ Tate LLC</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5010,6 +5864,14 @@
           <t>Gabriela Porter @ Mack Group</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5052,6 +5914,14 @@
           <t>Scott Armstrong @ Whitehead-Bell</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5094,6 +5964,14 @@
           <t>Melanie Flores @ Brown-Pugh</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5136,6 +6014,14 @@
           <t>Diana Taylor @ Cooper-West</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5178,6 +6064,14 @@
           <t>Keith Frazier @ Cervantes</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5220,6 +6114,14 @@
           <t>Lauren Waters @ Barnett-Peters</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5262,6 +6164,14 @@
           <t>Shannon Doyle @ Flores-Reese</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5304,6 +6214,14 @@
           <t>Heather Chavez @ Flores-Bailey</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5346,6 +6264,14 @@
           <t>David Miller @ Ortiz-Pham</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5388,6 +6314,14 @@
           <t>Jonathan Vasquez @ Rodriguez PLC</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5430,6 +6364,14 @@
           <t>Jessica Petersen @ Barnett-Peters</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5472,6 +6414,14 @@
           <t>Roger Wolfe @ Perkins-Watkins</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5514,6 +6464,14 @@
           <t>Raymond Edwards @ Rose Ltd</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>2432.95</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5556,6 +6514,14 @@
           <t>Gregory Diaz @ Henderson-Silva</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5598,6 +6564,14 @@
           <t>Nicole Mcclure @ Lynch, Harris and Cook</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5640,6 +6614,14 @@
           <t>Christopher Banks @ Campos-Boyd</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5682,6 +6664,14 @@
           <t>Anthony Sparks @ Martinez, Kim and Howard</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5724,6 +6714,14 @@
           <t>Ronald Petty @ Williams Ltd</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5766,6 +6764,14 @@
           <t>Rebecca Turner @ Leon and Sons</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5808,6 +6814,14 @@
           <t>Angelica Smith @ Soto LLC</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5850,6 +6864,14 @@
           <t>Mr. Jason Gonzalez @ Evans and Sons</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5892,6 +6914,14 @@
           <t>Karen Jones @ Garcia, Lee and Williams</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5934,6 +6964,14 @@
           <t>Michael Bauer @ Saunders-Nichols</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5976,6 +7014,14 @@
           <t>Sandra Leonard @ Bass, Ortiz and Fitzpatrick</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6018,6 +7064,14 @@
           <t>Felicia Wright @ Saunders-Nichols</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6060,6 +7114,14 @@
           <t>Mr. Jason Blake PhD @ Henderson-Silva</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6102,6 +7164,14 @@
           <t>Christina Dalton @ Cooper-West</t>
         </is>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6144,6 +7214,14 @@
           <t>Kimberly Hebert @ Hernandez-Briggs</t>
         </is>
       </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6186,6 +7264,14 @@
           <t>Charles Wiggins @ Rodriguez PLC</t>
         </is>
       </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6228,6 +7314,14 @@
           <t>Christopher Garcia DVM @ Campos-Boyd</t>
         </is>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6270,6 +7364,14 @@
           <t>Michelle Salas @ Montes-Barnes</t>
         </is>
       </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6312,6 +7414,14 @@
           <t>Roger Ramirez @ Jones Ltd</t>
         </is>
       </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6354,6 +7464,14 @@
           <t>Reginald Holloway @ Cervantes</t>
         </is>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6396,6 +7514,14 @@
           <t>Dominic Petty @ Martinez, Kim and Howard</t>
         </is>
       </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6438,6 +7564,14 @@
           <t>Cindy Sellers @ Weiss-Ortiz</t>
         </is>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6480,6 +7614,14 @@
           <t>Michael Carroll @ Russo, Moran and Hoffman</t>
         </is>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6522,6 +7664,14 @@
           <t>Chad Gilbert @ Henderson-Silva</t>
         </is>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6564,6 +7714,14 @@
           <t>Jillian Collins @ Wagner, Bailey and Guzman</t>
         </is>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6606,6 +7764,14 @@
           <t>Amanda Gonzalez @ Powell, Mcmahon and Shaffer</t>
         </is>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6648,6 +7814,14 @@
           <t>Amanda Dixon @ Adams LLC</t>
         </is>
       </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6690,6 +7864,14 @@
           <t>John Welch @ Martin LLC</t>
         </is>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6732,6 +7914,14 @@
           <t>Karen Tyler @ Casey-Stephenson</t>
         </is>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6774,6 +7964,14 @@
           <t>Teresa Thomas @ Lopez-Kirby</t>
         </is>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6816,6 +8014,14 @@
           <t>Timothy Ruiz @ Shepherd-Davis</t>
         </is>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6858,6 +8064,14 @@
           <t>Antonio Salazar @ Jones PLC</t>
         </is>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6900,6 +8114,14 @@
           <t>Linda Marquez @ Whitehead-Bell</t>
         </is>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6942,6 +8164,14 @@
           <t>Angela Pugh @ Flores-Reese</t>
         </is>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6984,6 +8214,14 @@
           <t>Laura Morales @ Montes-Barnes</t>
         </is>
       </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7026,6 +8264,14 @@
           <t>Maria Lamb @ Gross-Kennedy</t>
         </is>
       </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7068,6 +8314,14 @@
           <t>Michele Greer @ Mason Group</t>
         </is>
       </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7110,6 +8364,14 @@
           <t>Paul Richardson @ Manning Inc</t>
         </is>
       </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7152,6 +8414,14 @@
           <t>Randy Adams @ Hardin PLC</t>
         </is>
       </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7194,6 +8464,14 @@
           <t>Sheila Peterson @ Myers-Dawson</t>
         </is>
       </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7236,6 +8514,14 @@
           <t>Natalie Rivers @ Meyer, Alexander and Kim</t>
         </is>
       </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7278,6 +8564,14 @@
           <t>Ashley Smith @ Riley, Edwards and Calderon</t>
         </is>
       </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7320,6 +8614,14 @@
           <t>Kathy Rose @ Bell, Dean and Oneill</t>
         </is>
       </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7362,6 +8664,14 @@
           <t>Donna Travis @ Hernandez-Woods</t>
         </is>
       </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7404,6 +8714,14 @@
           <t>Kenneth Hoover @ Henderson-Silva</t>
         </is>
       </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7446,6 +8764,14 @@
           <t>Larry Irwin @ Soto LLC</t>
         </is>
       </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7488,6 +8814,14 @@
           <t>Christopher Livingston PhD @ Adams LLC</t>
         </is>
       </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7530,6 +8864,14 @@
           <t>John Rodriguez @ Burns and Sons</t>
         </is>
       </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7572,6 +8914,14 @@
           <t>Elizabeth Pollard @ Bean Inc</t>
         </is>
       </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7614,6 +8964,14 @@
           <t>Mrs. Natasha Best @ Shepard PLC</t>
         </is>
       </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7656,6 +9014,14 @@
           <t>Lindsey Gonzales @ Barnes, Whitehead and Gray</t>
         </is>
       </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7698,6 +9064,14 @@
           <t>Michael Skinner @ Harris-Becker</t>
         </is>
       </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7740,6 +9114,14 @@
           <t>Brooke Rodriguez @ Soto LLC</t>
         </is>
       </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7782,6 +9164,14 @@
           <t>Jessica Barnes @ Brown, Woodward and Sexton</t>
         </is>
       </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7824,6 +9214,14 @@
           <t>Samuel Heath @ Shepherd-Davis</t>
         </is>
       </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7866,6 +9264,14 @@
           <t>Jordan Ho @ Thomas, Love and Harris</t>
         </is>
       </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7908,6 +9314,14 @@
           <t>Jason Miller @ Leon and Sons</t>
         </is>
       </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7950,6 +9364,14 @@
           <t>Bonnie Anderson @ Mason Group</t>
         </is>
       </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7992,6 +9414,14 @@
           <t>Jimmy Adams @ Ramos-Montgomery</t>
         </is>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8034,6 +9464,14 @@
           <t>Elizabeth Fox @ Massey Ltd</t>
         </is>
       </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8076,6 +9514,14 @@
           <t>Katie Clark @ Baker, Mcdaniel and Cruz</t>
         </is>
       </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J182" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8118,6 +9564,14 @@
           <t>Hayley Robinson @ Powell, Mcmahon and Shaffer</t>
         </is>
       </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8160,6 +9614,14 @@
           <t>Robert Sampson @ Ortiz-Pham</t>
         </is>
       </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8202,6 +9664,14 @@
           <t>Amanda Alexander @ Price LLC</t>
         </is>
       </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8244,6 +9714,14 @@
           <t>Gregory Johnson @ Guerra-Garcia</t>
         </is>
       </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8286,6 +9764,14 @@
           <t>Amy Wright @ Weiss-Ortiz</t>
         </is>
       </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8328,6 +9814,14 @@
           <t>Samuel Hunter @ Martinez, Kim and Howard</t>
         </is>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8370,6 +9864,14 @@
           <t>Thomas Davis Jr. @ Gay-Stevenson</t>
         </is>
       </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8412,6 +9914,14 @@
           <t>Kevin Buchanan @ Soto LLC</t>
         </is>
       </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8454,6 +9964,14 @@
           <t>Ms. Cindy Juarez MD @ Barnes, Whitehead and Gray</t>
         </is>
       </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8496,6 +10014,14 @@
           <t>Erin Williams @ Guerra-Garcia</t>
         </is>
       </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J192" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8538,6 +10064,14 @@
           <t>Crystal Hunt @ Gross-Kennedy</t>
         </is>
       </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8580,6 +10114,14 @@
           <t>Alyssa Lang @ Brown, Woodward and Sexton</t>
         </is>
       </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J194" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8622,6 +10164,14 @@
           <t>Emily Thomas @ Evans and Sons</t>
         </is>
       </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8664,6 +10214,14 @@
           <t>Daniel Aguilar @ Gay-Stevenson</t>
         </is>
       </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8706,6 +10264,14 @@
           <t>Sharon Hammond @ Galvan Group</t>
         </is>
       </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J197" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8748,6 +10314,14 @@
           <t>Heather Orozco @ Wagner, Bailey and Guzman</t>
         </is>
       </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8790,6 +10364,14 @@
           <t>Kimberly Welch @ Cervantes</t>
         </is>
       </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8832,6 +10414,14 @@
           <t>Lisa Cross @ Mack Group</t>
         </is>
       </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8874,6 +10464,14 @@
           <t>Shawn Griffith @ Clay, Smith and Phillips</t>
         </is>
       </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J201" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8916,6 +10514,14 @@
           <t>Virginia Perez @ Perkins-Watkins</t>
         </is>
       </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>2432.95</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8958,6 +10564,14 @@
           <t>James Hooper @ Raymond, Terry and Warner</t>
         </is>
       </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9000,6 +10614,14 @@
           <t>Ronnie Robinson @ Myers-Dawson</t>
         </is>
       </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -9042,6 +10664,14 @@
           <t>Kevin Schmidt @ Tate LLC</t>
         </is>
       </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9084,6 +10714,14 @@
           <t>Daniel Pennington @ Berg Ltd</t>
         </is>
       </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -9126,6 +10764,14 @@
           <t>Ryan Wang @ Martinez, Kim and Howard</t>
         </is>
       </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>2432.95</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9168,6 +10814,14 @@
           <t>Renee Tucker @ Nielsen LLC</t>
         </is>
       </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9210,6 +10864,14 @@
           <t>Shannon Potts @ Edwards and Sons</t>
         </is>
       </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9252,6 +10914,14 @@
           <t>Annette Carter @ Kelly Inc</t>
         </is>
       </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9294,6 +10964,14 @@
           <t>Samantha Wilson @ Burns and Sons</t>
         </is>
       </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9336,6 +11014,14 @@
           <t>Diane Owens @ Shepard PLC</t>
         </is>
       </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9378,6 +11064,14 @@
           <t>Megan Lopez @ Leon and Sons</t>
         </is>
       </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9420,6 +11114,14 @@
           <t>Caroline Garcia @ Bass, Ortiz and Fitzpatrick</t>
         </is>
       </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J214" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9462,6 +11164,14 @@
           <t>Eric Martinez @ Martinez, Kim and Howard</t>
         </is>
       </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9504,6 +11214,14 @@
           <t>Danielle Craig @ Ballard Inc</t>
         </is>
       </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9546,6 +11264,14 @@
           <t>William Moon @ Meyer, Alexander and Kim</t>
         </is>
       </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J217" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9588,6 +11314,14 @@
           <t>Nicolas Fernandez PhD @ Lopez-Kirby</t>
         </is>
       </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9630,6 +11364,14 @@
           <t>Sydney Jones @ Diaz PLC</t>
         </is>
       </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9672,6 +11414,14 @@
           <t>Morgan Horn @ Montgomery-Cox</t>
         </is>
       </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J220" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9714,6 +11464,14 @@
           <t>Cynthia Escobar @ Myers LLC</t>
         </is>
       </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>2432.95</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9756,6 +11514,14 @@
           <t>Robert Phillips @ Leon and Sons</t>
         </is>
       </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9798,6 +11564,14 @@
           <t>David Thomas @ Hunt-Reed</t>
         </is>
       </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9840,6 +11614,14 @@
           <t>David Hines @ Henderson-Silva</t>
         </is>
       </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9882,6 +11664,14 @@
           <t>Jessica Butler @ Montgomery-Cox</t>
         </is>
       </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9924,6 +11714,14 @@
           <t>Casey Ortiz @ Ramirez PLC</t>
         </is>
       </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9966,6 +11764,14 @@
           <t>Kristina Vasquez @ Whitehead-Bell</t>
         </is>
       </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -10008,6 +11814,14 @@
           <t>Veronica Ward @ Manning Inc</t>
         </is>
       </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -10050,6 +11864,14 @@
           <t>Jennifer Malone @ Flores-Reese</t>
         </is>
       </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -10092,6 +11914,14 @@
           <t>Alexandra Hardy @ Mason Group</t>
         </is>
       </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -10134,6 +11964,14 @@
           <t>Ellen Holden DDS @ Moreno Ltd</t>
         </is>
       </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -10176,6 +12014,14 @@
           <t>Susan Martinez @ Edwards and Sons</t>
         </is>
       </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -10218,6 +12064,14 @@
           <t>Christine Marks @ Rose Ltd</t>
         </is>
       </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10260,6 +12114,14 @@
           <t>Felicia Harris @ Casey-Stephenson</t>
         </is>
       </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -10302,6 +12164,14 @@
           <t>Ryan Arnold @ Ballard Inc</t>
         </is>
       </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10344,6 +12214,14 @@
           <t>Christopher Ferguson @ Flores-Bailey</t>
         </is>
       </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10386,6 +12264,14 @@
           <t>Mary Rivera @ Glover-Rivera</t>
         </is>
       </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10428,6 +12314,14 @@
           <t>April Cole @ Watkins, Sanders and Barry</t>
         </is>
       </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10470,6 +12364,14 @@
           <t>Ernest Johnson @ Evans and Sons</t>
         </is>
       </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10512,6 +12414,14 @@
           <t>Briana Chen @ Watkins, Sanders and Barry</t>
         </is>
       </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10554,6 +12464,14 @@
           <t>Sandra Dorsey @ Gross-Kennedy</t>
         </is>
       </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10596,6 +12514,14 @@
           <t>Stephanie Johnson MD @ Casey-Stephenson</t>
         </is>
       </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10638,6 +12564,14 @@
           <t>Nicholas Massey @ Myers-Dawson</t>
         </is>
       </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J243" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10680,6 +12614,14 @@
           <t>Steven Mccarty @ Wagner, Bailey and Guzman</t>
         </is>
       </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J244" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10722,6 +12664,14 @@
           <t>Pamela Shields @ Ramos-Montgomery</t>
         </is>
       </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10764,6 +12714,14 @@
           <t>Diane Thomas @ Galvan Group</t>
         </is>
       </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J246" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10806,6 +12764,14 @@
           <t>Daniel Martin @ Mack Group</t>
         </is>
       </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10848,6 +12814,14 @@
           <t>Janet Moore @ James LLC</t>
         </is>
       </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10890,6 +12864,14 @@
           <t>Denise Hobbs @ Clay, Smith and Phillips</t>
         </is>
       </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="J249" t="n">
+        <v>2432.95</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10932,6 +12914,14 @@
           <t>Ronald Brooks @ Davies Group</t>
         </is>
       </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J250" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10974,6 +12964,14 @@
           <t>Christopher Martin @ Montes-Barnes</t>
         </is>
       </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J251" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -11016,6 +13014,14 @@
           <t>Darren Howell @ Massey Ltd</t>
         </is>
       </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -11058,6 +13064,14 @@
           <t>Brian Byrd @ Ortiz-Pham</t>
         </is>
       </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J253" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -11100,6 +13114,14 @@
           <t>Francis Figueroa @ Wagner, Bailey and Guzman</t>
         </is>
       </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11142,6 +13164,14 @@
           <t>Adriana Parker @ Galvan Group</t>
         </is>
       </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J255" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -11184,6 +13214,14 @@
           <t>John Patterson @ Bean Inc</t>
         </is>
       </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J256" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -11226,6 +13264,14 @@
           <t>Alan Sullivan @ Young-Garcia</t>
         </is>
       </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J257" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -11268,6 +13314,14 @@
           <t>Jeanette Lopez @ Montgomery-Brady</t>
         </is>
       </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J258" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -11310,6 +13364,14 @@
           <t>Ashley Jackson @ Martinez Inc</t>
         </is>
       </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J259" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11352,6 +13414,14 @@
           <t>Robert Smith @ Martinez, Kim and Howard</t>
         </is>
       </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J260" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11394,6 +13464,14 @@
           <t>Eric Jones @ Mason Group</t>
         </is>
       </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J261" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -11436,6 +13514,14 @@
           <t>Benjamin Shields @ Martin LLC</t>
         </is>
       </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J262" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11478,6 +13564,14 @@
           <t>Michelle Roberts @ Bean Inc</t>
         </is>
       </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J263" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11520,6 +13614,14 @@
           <t>Christopher Harris @ Tucker Ltd</t>
         </is>
       </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J264" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11562,6 +13664,14 @@
           <t>Paul Valdez @ Jones, Adkins and Robinson</t>
         </is>
       </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J265" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11604,6 +13714,14 @@
           <t>Jacob Lucas @ Tucker Ltd</t>
         </is>
       </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J266" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11646,6 +13764,8 @@
           <t>Jacob Clay MD @ Myers LLC</t>
         </is>
       </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11688,6 +13808,14 @@
           <t>Kimberly Vaughn @ Powell, Mcmahon and Shaffer</t>
         </is>
       </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J268" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11730,6 +13858,14 @@
           <t>Matthew Green @ Manning Inc</t>
         </is>
       </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11772,6 +13908,14 @@
           <t>Brianna Stewart @ Mack Group</t>
         </is>
       </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J270" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11814,6 +13958,14 @@
           <t>Frank Carroll @ Hernandez-Woods</t>
         </is>
       </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J271" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11856,6 +14008,14 @@
           <t>Suzanne Bell @ Cooper, Pineda and Whitney</t>
         </is>
       </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J272" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11898,6 +14058,14 @@
           <t>Kimberly Sims @ Hernandez-Woods</t>
         </is>
       </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="J273" t="n">
+        <v>2432.95</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -11940,6 +14108,14 @@
           <t>Vernon Hill @ Clay, Smith and Phillips</t>
         </is>
       </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J274" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11982,6 +14158,14 @@
           <t>Kayla Hunter @ Myers-Dawson</t>
         </is>
       </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J275" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -12024,6 +14208,14 @@
           <t>Jeffrey Roberts @ Myers LLC</t>
         </is>
       </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J276" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -12066,6 +14258,14 @@
           <t>Nicholas Clarke @ Baker, Mcdaniel and Cruz</t>
         </is>
       </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J277" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -12108,6 +14308,14 @@
           <t>Dr. Crystal Ashley MD @ Ortiz-Pham</t>
         </is>
       </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J278" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -12150,6 +14358,14 @@
           <t>Douglas Lynch @ Berg Ltd</t>
         </is>
       </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J279" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -12192,6 +14408,14 @@
           <t>Kathryn Shepard @ Mack Group</t>
         </is>
       </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J280" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -12234,6 +14458,14 @@
           <t>Alison Riddle @ Olson-Sanders</t>
         </is>
       </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J281" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12276,6 +14508,14 @@
           <t>Pamela Pittman @ Powell, Mcmahon and Shaffer</t>
         </is>
       </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J282" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -12318,6 +14558,14 @@
           <t>Matthew Flores @ Hernandez, Hoffman and Sanchez</t>
         </is>
       </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J283" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12360,6 +14608,14 @@
           <t>Melissa Dillon @ Ballard Inc</t>
         </is>
       </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J284" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12402,6 +14658,14 @@
           <t>Jose Vasquez @ Brown-Hawkins</t>
         </is>
       </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J285" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12444,6 +14708,14 @@
           <t>Brian Hanson @ Leon and Sons</t>
         </is>
       </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J286" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12486,6 +14758,14 @@
           <t>Tara Rush @ Moreno Ltd</t>
         </is>
       </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J287" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -12528,6 +14808,14 @@
           <t>Rachel Mccarthy @ Barnes, Whitehead and Gray</t>
         </is>
       </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J288" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12570,6 +14858,14 @@
           <t>Erika Newton @ Suarez, Riddle and Black</t>
         </is>
       </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J289" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12612,6 +14908,14 @@
           <t>Andrew Winters @ Davies Group</t>
         </is>
       </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J290" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12654,6 +14958,14 @@
           <t>Sara Anderson @ Burns and Sons</t>
         </is>
       </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J291" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12696,6 +15008,14 @@
           <t>William Martin @ Watkins, Sanders and Barry</t>
         </is>
       </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J292" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12738,6 +15058,14 @@
           <t>Duane Hunt @ Gonzales, Miller and Sanchez</t>
         </is>
       </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12780,6 +15108,14 @@
           <t>Mark Giles @ Hardin PLC</t>
         </is>
       </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12822,6 +15158,14 @@
           <t>Barbara Patterson @ Mack Group</t>
         </is>
       </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12864,6 +15208,14 @@
           <t>Gina Smith @ Jones, Adkins and Robinson</t>
         </is>
       </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J296" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12906,6 +15258,14 @@
           <t>James Keller @ Ortiz-Pham</t>
         </is>
       </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J297" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12948,6 +15308,14 @@
           <t>Carly Sullivan @ Ballard Inc</t>
         </is>
       </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J298" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -12990,6 +15358,14 @@
           <t>Lucas Bautista @ Saunders-Nichols</t>
         </is>
       </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J299" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -13032,6 +15408,14 @@
           <t>Laura Hays @ Tate LLC</t>
         </is>
       </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J300" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -13074,6 +15458,14 @@
           <t>Kathryn Martin @ Jones, Quinn and Gonzalez</t>
         </is>
       </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -13116,6 +15508,14 @@
           <t>Joseph Frost @ Burns and Sons</t>
         </is>
       </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J302" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -13158,6 +15558,14 @@
           <t>Rebecca Burton @ Rodriguez PLC</t>
         </is>
       </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J303" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -13200,6 +15608,14 @@
           <t>David Davis @ Hardin PLC</t>
         </is>
       </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J304" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -13242,6 +15658,14 @@
           <t>Mark Smith @ Cooper, Pineda and Whitney</t>
         </is>
       </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J305" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -13284,6 +15708,14 @@
           <t>Edward Gilmore @ Watkins, Sanders and Barry</t>
         </is>
       </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J306" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -13326,6 +15758,14 @@
           <t>Zachary Horton @ Glover-Rivera</t>
         </is>
       </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J307" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -13368,6 +15808,14 @@
           <t>John Snow @ Gay-Stevenson</t>
         </is>
       </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J308" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13410,6 +15858,14 @@
           <t>Chris Gross @ Tucker Ltd</t>
         </is>
       </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J309" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -13452,6 +15908,14 @@
           <t>Keith Conner @ Leon and Sons</t>
         </is>
       </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J310" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -13494,6 +15958,14 @@
           <t>Jason Craig @ Bell, Dean and Oneill</t>
         </is>
       </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J311" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -13536,6 +16008,14 @@
           <t>Manuel Graham @ Campos-Boyd</t>
         </is>
       </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J312" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -13578,6 +16058,14 @@
           <t>Cindy Mitchell @ Brown, Woodward and Sexton</t>
         </is>
       </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J313" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -13620,6 +16108,14 @@
           <t>Terry Baker @ Young-Garcia</t>
         </is>
       </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J314" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -13662,6 +16158,14 @@
           <t>Joseph Bishop @ Gay-Stevenson</t>
         </is>
       </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J315" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -13704,6 +16208,14 @@
           <t>Mark Warren @ Gross-Kennedy</t>
         </is>
       </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="J316" t="n">
+        <v>2432.95</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -13746,6 +16258,14 @@
           <t>Brianna Moore @ Coleman, Jones and Keith</t>
         </is>
       </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J317" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13788,6 +16308,14 @@
           <t>Joseph Patterson @ Tate LLC</t>
         </is>
       </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J318" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13830,6 +16358,14 @@
           <t>Daniel Ellis @ Shepherd-Davis</t>
         </is>
       </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J319" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13872,6 +16408,14 @@
           <t>Emily Brown @ Harris-Chapman</t>
         </is>
       </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J320" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -13914,6 +16458,14 @@
           <t>Rachael Jackson @ Diaz PLC</t>
         </is>
       </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J321" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -13956,6 +16508,14 @@
           <t>Victor Griffith @ Adams LLC</t>
         </is>
       </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J322" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -13998,6 +16558,14 @@
           <t>Barbara Stokes @ Williams Ltd</t>
         </is>
       </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J323" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -14040,6 +16608,14 @@
           <t>Steven Fox @ Allen Inc</t>
         </is>
       </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J324" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -14082,6 +16658,14 @@
           <t>Nathan Harding @ Jones, Quinn and Gonzalez</t>
         </is>
       </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J325" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -14124,6 +16708,14 @@
           <t>Jason Ramos @ Shepherd-Davis</t>
         </is>
       </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J326" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -14166,6 +16758,14 @@
           <t>Scott Wallace @ Flores-Bailey</t>
         </is>
       </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J327" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -14208,6 +16808,14 @@
           <t>Amanda Kent @ Baker, Mcdaniel and Cruz</t>
         </is>
       </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J328" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -14250,6 +16858,14 @@
           <t>Mrs. Felicia Johnson MD @ Jones, Quinn and Gonzalez</t>
         </is>
       </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J329" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -14292,6 +16908,14 @@
           <t>Cameron Horn @ Leon and Sons</t>
         </is>
       </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J330" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -14334,6 +16958,14 @@
           <t>Allison Morgan @ Young-Garcia</t>
         </is>
       </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J331" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -14376,6 +17008,14 @@
           <t>Kelly Richardson @ Suarez, Riddle and Black</t>
         </is>
       </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J332" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -14418,6 +17058,14 @@
           <t>Crystal Beard @ Cooper, Pineda and Whitney</t>
         </is>
       </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J333" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -14460,6 +17108,14 @@
           <t>Emily Lynch @ Hernandez-Briggs</t>
         </is>
       </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J334" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14502,6 +17158,14 @@
           <t>James Hardin @ Jones, Quinn and Gonzalez</t>
         </is>
       </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J335" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -14544,6 +17208,14 @@
           <t>Monique Price @ Hernandez, Hoffman and Sanchez</t>
         </is>
       </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J336" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -14586,6 +17258,14 @@
           <t>Steven Gates @ Young-Garcia</t>
         </is>
       </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J337" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -14628,6 +17308,14 @@
           <t>Anthony Li @ Moreno Ltd</t>
         </is>
       </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J338" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -14670,6 +17358,14 @@
           <t>Aimee Taylor @ Cervantes</t>
         </is>
       </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J339" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -14712,6 +17408,14 @@
           <t>James Thompson @ Cooper-West</t>
         </is>
       </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J340" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -14754,6 +17458,14 @@
           <t>Alison Freeman @ Henderson-Silva</t>
         </is>
       </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J341" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -14796,6 +17508,14 @@
           <t>Katelyn Small @ Hernandez-Briggs</t>
         </is>
       </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J342" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14838,6 +17558,14 @@
           <t>Joseph Vaughn @ Gay-Stevenson</t>
         </is>
       </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J343" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -14880,6 +17608,14 @@
           <t>Michael Ballard @ BeanInc</t>
         </is>
       </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J344" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -14922,6 +17658,14 @@
           <t>Christopher Wheeler @ Hernandez-Briggs</t>
         </is>
       </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J345" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -14964,6 +17708,14 @@
           <t>Susan Snyder @ Jones, Quinn and Gonzalez</t>
         </is>
       </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J346" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -15006,6 +17758,14 @@
           <t>Sara Wells PhD @ Brown-Hawkins</t>
         </is>
       </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J347" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -15048,6 +17808,14 @@
           <t>Andrew Stewart @ Hardin PLC</t>
         </is>
       </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J348" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -15090,6 +17858,14 @@
           <t>Cynthia Garrett @ Durham Inc</t>
         </is>
       </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J349" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -15132,6 +17908,14 @@
           <t>Michelle Phillips @ Hunt-Reed</t>
         </is>
       </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J350" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -15174,6 +17958,14 @@
           <t>Jordan Mcbride @ Baker, Mcdaniel and Cruz</t>
         </is>
       </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J351" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -15216,6 +18008,14 @@
           <t>Jennifer Mason @ Raymond, Terry and Warner</t>
         </is>
       </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J352" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -15258,6 +18058,14 @@
           <t>Jason Jackson @ Martinez Inc</t>
         </is>
       </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J353" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -15300,6 +18108,14 @@
           <t>Erin Osborne @ Allen Inc</t>
         </is>
       </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J354" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -15342,6 +18158,14 @@
           <t>Amy Yu @ Ramirez PLC</t>
         </is>
       </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J355" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -15384,6 +18208,14 @@
           <t>Bethany Mcdaniel @ Moreno Ltd</t>
         </is>
       </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J356" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -15426,6 +18258,14 @@
           <t>Gary Anderson @ Brown-Hawkins</t>
         </is>
       </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J357" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -15468,6 +18308,14 @@
           <t>Megan Hudson @ Shepherd-Davis</t>
         </is>
       </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J358" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -15510,6 +18358,14 @@
           <t>Kelsey Lopez @ Martin-Gates</t>
         </is>
       </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J359" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -15552,6 +18408,14 @@
           <t>Samantha Hansen @ Lopez-Kirby</t>
         </is>
       </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J360" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -15594,6 +18458,8 @@
           <t>Charles Paul @ Mack Group</t>
         </is>
       </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -15636,6 +18502,14 @@
           <t>Rebecca Braun @ Gross-Kennedy</t>
         </is>
       </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J362" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -15678,6 +18552,14 @@
           <t>Courtney Nunez @ Jones, Adkins and Robinson</t>
         </is>
       </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J363" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -15720,6 +18602,14 @@
           <t>Christopher Pugh @ Lopez-Kirby</t>
         </is>
       </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J364" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -15762,6 +18652,14 @@
           <t>Tanya Sanchez @ Gay-Stevenson</t>
         </is>
       </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J365" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -15804,6 +18702,14 @@
           <t>Angela Blair @ Cooper, Pineda and Whitney</t>
         </is>
       </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J366" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -15846,6 +18752,14 @@
           <t>Michael Lozano @ Williams Ltd</t>
         </is>
       </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J367" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -15888,6 +18802,14 @@
           <t>Peggy Ortiz @ Price LLC</t>
         </is>
       </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J368" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -15930,6 +18852,14 @@
           <t>Rebecca Stevens @ Olson-Sanders</t>
         </is>
       </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J369" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -15972,6 +18902,14 @@
           <t>Joseph Bryan @ James LLC</t>
         </is>
       </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J370" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -16014,6 +18952,14 @@
           <t>Hannah Booker @ Ball%ard Inc</t>
         </is>
       </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J371" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -16056,6 +19002,14 @@
           <t>Scott Hernandez @ Hernandez-Woods</t>
         </is>
       </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J372" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -16098,6 +19052,14 @@
           <t>Jose Snyder @ Rodriguez PLC</t>
         </is>
       </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J373" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -16140,6 +19102,14 @@
           <t>David Williamson @ Harris-Becker</t>
         </is>
       </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J374" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -16182,6 +19152,14 @@
           <t>Donald Ramirez @ Thomas, Love and Harris</t>
         </is>
       </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J375" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -16224,6 +19202,14 @@
           <t>Brandon Trevino @ Olson-Sanders</t>
         </is>
       </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J376" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -16266,6 +19252,14 @@
           <t>Mark Hernandez @ Hernandez-Briggs</t>
         </is>
       </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J377" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -16308,6 +19302,14 @@
           <t>Mr. Michael Williams @ Martinez Inc</t>
         </is>
       </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J378" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -16350,6 +19352,14 @@
           <t>Kimberly Booker @ Montgomery-Cox</t>
         </is>
       </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J379" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -16392,6 +19402,14 @@
           <t>Jacqueline Smith @ Bass, Ortiz and Fitzpatrick</t>
         </is>
       </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J380" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -16434,6 +19452,14 @@
           <t>Samantha Garcia @ Russo, Moran and Hoffman</t>
         </is>
       </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J381" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -16476,6 +19502,14 @@
           <t>Stephen Smith @ Jones, Adkins and Robinson</t>
         </is>
       </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J382" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -16518,6 +19552,14 @@
           <t>Dr. Amy Moore @ Myers LLC</t>
         </is>
       </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J383" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16560,6 +19602,14 @@
           <t>Mrs. Melanie Brown @ Durham Inc</t>
         </is>
       </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J384" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -16602,6 +19652,14 @@
           <t>Tina Galvan @ Montgomery-Cox</t>
         </is>
       </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J385" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -16644,6 +19702,14 @@
           <t>Paula Dickerson @ Lynch, Harris and Cook</t>
         </is>
       </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J386" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -16686,6 +19752,14 @@
           <t>Kathleen Snyder @ Tucker Ltd</t>
         </is>
       </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J387" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -16728,6 +19802,14 @@
           <t>Debra Collins @ Pearson Ltd</t>
         </is>
       </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J388" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -16770,6 +19852,14 @@
           <t>Carl Hall @ Ramirez PLC</t>
         </is>
       </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J389" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -16812,6 +19902,14 @@
           <t>James Cox @ Powell, Mcmahon and Shaffer</t>
         </is>
       </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J390" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -16854,6 +19952,14 @@
           <t>Mr. Collin Robinson Jr. @ Ramos-Montgomery</t>
         </is>
       </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J391" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -16896,6 +20002,14 @@
           <t>David Mcbride @ Gonzales, Miller and Sanchez</t>
         </is>
       </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J392" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -16938,6 +20052,14 @@
           <t>Emily Cooper @ Barnes, Whitehead and Gray</t>
         </is>
       </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J393" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -16980,6 +20102,14 @@
           <t>Mallory Ross @ Tucker Ltd</t>
         </is>
       </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J394" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -17022,6 +20152,14 @@
           <t>Lucas Butler @ Meyer, Alexander and Kim</t>
         </is>
       </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J395" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -17064,6 +20202,14 @@
           <t>Tiffany Navarro @ Rodriguez PLC</t>
         </is>
       </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J396" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -17106,6 +20252,14 @@
           <t>Heather Harrell @ Martinez Inc</t>
         </is>
       </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J397" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -17148,6 +20302,14 @@
           <t>Nancy Anderson @ Guerra-Garcia</t>
         </is>
       </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J398" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -17190,6 +20352,14 @@
           <t>Daniel Cannon @ Mack Group</t>
         </is>
       </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J399" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -17232,6 +20402,14 @@
           <t>Todd Lewis @ Cooper, Pineda and Whitney</t>
         </is>
       </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J400" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -17274,6 +20452,14 @@
           <t>Sabrina Delgado @ Jones, Adkins and Robinson</t>
         </is>
       </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J401" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -17316,6 +20502,14 @@
           <t>Shawn Webb @ Glover-Rivera</t>
         </is>
       </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J402" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -17358,6 +20552,14 @@
           <t>Jacob Barnes @ Watkins, Sanders and Barry</t>
         </is>
       </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J403" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -17400,6 +20602,14 @@
           <t>Terry Harris @ Bass, Ortiz and Fitzpatrick</t>
         </is>
       </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J404" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -17442,6 +20652,14 @@
           <t>Gary Mullins @ Kelly Inc</t>
         </is>
       </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J405" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -17484,6 +20702,14 @@
           <t>Janice Beck @ Campos-Boyd</t>
         </is>
       </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J406" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -17526,6 +20752,14 @@
           <t>Bryan Nelson @ Harris-Chapman</t>
         </is>
       </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J407" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -17568,6 +20802,14 @@
           <t>Amber Castro @ Montes-Barnes</t>
         </is>
       </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J408" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -17610,6 +20852,14 @@
           <t>John Lee @ Powell, Mcmahon and Shaffer</t>
         </is>
       </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J409" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -17652,6 +20902,14 @@
           <t>Ashley Gregory @ Bass, Ortiz and Fitzpatrick</t>
         </is>
       </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J410" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -17694,6 +20952,14 @@
           <t>Brian Mitchell @ Harris-Becker</t>
         </is>
       </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J411" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -17736,6 +21002,14 @@
           <t>Jennifer Michael @ Weiss-Ortiz</t>
         </is>
       </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J412" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -17778,6 +21052,14 @@
           <t>Samantha Weiss @ Jones, Adkins and Robinson</t>
         </is>
       </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J413" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -17820,6 +21102,14 @@
           <t>Amber Vargas @ Bass, Ortiz and Fitzpatrick</t>
         </is>
       </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J414" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -17862,6 +21152,14 @@
           <t>Crystal Jones @ Coleman, Jones and Keith</t>
         </is>
       </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J415" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -17904,6 +21202,14 @@
           <t>Lauren Vasquez @ Leon and Sons</t>
         </is>
       </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J416" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -17946,6 +21252,14 @@
           <t>Amanda Mcguire @ Raymond, Terry and Warner</t>
         </is>
       </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J417" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -17988,6 +21302,14 @@
           <t>Michael Smith @ Williams Ltd</t>
         </is>
       </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J418" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -18030,6 +21352,14 @@
           <t>James Davis @ Manning Inc</t>
         </is>
       </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J419" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -18072,6 +21402,14 @@
           <t>Connie Neal @ Rodriguez PLC</t>
         </is>
       </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J420" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -18114,6 +21452,14 @@
           <t>Kathryn Jones @ Cooper-West</t>
         </is>
       </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J421" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -18156,6 +21502,14 @@
           <t>Kimberly Perry @ Rodriguez PLC</t>
         </is>
       </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J422" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -18198,6 +21552,14 @@
           <t>Kimberly Perez @ Suarez, Riddle and Black</t>
         </is>
       </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J423" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -18240,6 +21602,14 @@
           <t>Samantha Jordan @ Bell, Dean and Oneill</t>
         </is>
       </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J424" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -18282,6 +21652,14 @@
           <t>Albert Perez @ Diaz PLC</t>
         </is>
       </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J425" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -18324,6 +21702,14 @@
           <t>Christopher Alvarez @ Moore, Warren and Morris</t>
         </is>
       </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J426" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -18366,6 +21752,14 @@
           <t>Kenneth Wallace @ Ortiz-Pham</t>
         </is>
       </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J427" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -18408,6 +21802,14 @@
           <t>Chloe Jackson @ Powell, Mcmahon and Shaffer</t>
         </is>
       </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J428" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -18450,6 +21852,14 @@
           <t>James May @ James LLC</t>
         </is>
       </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J429" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -18492,6 +21902,14 @@
           <t>Christina Carrillo @ Gross-Kennedy</t>
         </is>
       </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J430" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -18534,6 +21952,14 @@
           <t>Alexander Hernandez @ Montes-Barnes</t>
         </is>
       </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J431" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -18576,6 +22002,14 @@
           <t>Emily Nixon @ Tate LLC</t>
         </is>
       </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J432" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -18618,6 +22052,14 @@
           <t>Matthew Davis Jr. @ Evans and Sons</t>
         </is>
       </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J433" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -18660,6 +22102,14 @@
           <t>Jared Woods @ Myers LLC</t>
         </is>
       </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J434" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -18702,6 +22152,14 @@
           <t>Sheila Gallagher @ James LLC</t>
         </is>
       </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J435" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -18744,6 +22202,14 @@
           <t>Jennifer Johnston @ Whitehead-Bell</t>
         </is>
       </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J436" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -18786,6 +22252,14 @@
           <t>Anthony Simon @ Flores-Bailey</t>
         </is>
       </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J437" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -18828,6 +22302,14 @@
           <t>Stephen Miller @ Shepard PLC</t>
         </is>
       </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J438" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -18870,6 +22352,14 @@
           <t>Jerry Ward @ Shepherd-Davis</t>
         </is>
       </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J439" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -18912,6 +22402,14 @@
           <t>Sarah Cooper @ Leon and Sons</t>
         </is>
       </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J440" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -18954,6 +22452,14 @@
           <t>Jacob Walter @ Gay-Stevenson</t>
         </is>
       </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J441" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -18996,6 +22502,14 @@
           <t>David Robinson @ Massey Ltd</t>
         </is>
       </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J442" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -19038,6 +22552,8 @@
           <t>Melissa Young @ Shepard PLC</t>
         </is>
       </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -19080,6 +22596,14 @@
           <t>James Brooks @ Burns and Sons</t>
         </is>
       </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J444" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -19122,6 +22646,14 @@
           <t>Connie Moore MD @ Moreno Ltd</t>
         </is>
       </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J445" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -19164,6 +22696,14 @@
           <t>Daniel Shepherd @ Jones PLC</t>
         </is>
       </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J446" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -19206,6 +22746,14 @@
           <t>Nicole Barber @ Leon and Sons</t>
         </is>
       </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J447" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -19248,6 +22796,14 @@
           <t>Mallory Palmer @ Rodriguez PLC</t>
         </is>
       </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J448" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -19290,6 +22846,14 @@
           <t>Jessica White @ Harris-Chapman</t>
         </is>
       </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J449" t="n">
+        <v>3660.33</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -19332,6 +22896,14 @@
           <t>Heather Mcdowell @ Cooper-West</t>
         </is>
       </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J450" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -19374,6 +22946,14 @@
           <t>Martin Owens @ James LLC</t>
         </is>
       </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J451" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -19416,6 +22996,14 @@
           <t>Jennifer Melton @ Olson-Sanders</t>
         </is>
       </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J452" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -19458,6 +23046,14 @@
           <t>Andrew Bradley @ Myers LLC</t>
         </is>
       </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J453" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -19500,6 +23096,14 @@
           <t>Wesley Wells @ Flores-Bailey</t>
         </is>
       </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J454" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -19542,6 +23146,14 @@
           <t>David Perry @ Gross-Kennedy</t>
         </is>
       </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J455" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -19584,6 +23196,14 @@
           <t>Jacob Grant @ Young-Garcia</t>
         </is>
       </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J456" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -19626,6 +23246,14 @@
           <t>William Reynolds @ Russo, Moran and Hoffman</t>
         </is>
       </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J457" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -19668,6 +23296,14 @@
           <t>Michael Williams @ Weiss-Ortiz</t>
         </is>
       </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J458" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -19710,6 +23346,14 @@
           <t>Dr. Paul Torres @ Powell, Mcmahon and Shaffer</t>
         </is>
       </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J459" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -19752,6 +23396,14 @@
           <t>Jennifer Hanna @ Brown-Hawkins</t>
         </is>
       </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J460" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -19794,6 +23446,14 @@
           <t>Garrett Mayo @ Young-Garcia</t>
         </is>
       </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J461" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -19836,6 +23496,14 @@
           <t>Daniel Contreras @ Whitehead-Bell</t>
         </is>
       </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J462" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -19878,6 +23546,14 @@
           <t>Sharon Johnson @ Pearson Ltd</t>
         </is>
       </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J463" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -19920,6 +23596,14 @@
           <t>Virginia Wright @ Glover-Rivera</t>
         </is>
       </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J464" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -19962,6 +23646,14 @@
           <t>Tyler Boyd @ Cervantes Inc</t>
         </is>
       </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J465" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -20004,6 +23696,14 @@
           <t>Jonathan Wilson @ Ramirez PLC</t>
         </is>
       </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J466" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -20046,6 +23746,14 @@
           <t>Anthony Shaffer @ Jones, Adkins and Robinson</t>
         </is>
       </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J467" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -20088,6 +23796,14 @@
           <t>Jacob Howard @ Martinez Ltd</t>
         </is>
       </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J468" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -20130,6 +23846,14 @@
           <t>Isaac Bowman @ Montes-Barnes</t>
         </is>
       </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J469" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -20172,6 +23896,14 @@
           <t>Sarah Downs @ Jones Ltd</t>
         </is>
       </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J470" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -20214,6 +23946,14 @@
           <t>Gloria Faulkner @ Powell, Mcmahon and Shaffer</t>
         </is>
       </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J471" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -20256,6 +23996,14 @@
           <t>Amber Willis @ Brown, Woodward and Sexton</t>
         </is>
       </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J472" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -20298,6 +24046,14 @@
           <t>Christina Gonzalez @ Jones, Quinn and Gonzalez</t>
         </is>
       </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J473" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -20340,6 +24096,14 @@
           <t>Sarah Downs @ Montes-Barnes</t>
         </is>
       </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J474" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -20382,6 +24146,14 @@
           <t>Mr. Christopher Brown @ Gonzales, Miller and Sanchez</t>
         </is>
       </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J475" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -20424,6 +24196,14 @@
           <t>Ryan Jenkins @ Martin LLC</t>
         </is>
       </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J476" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -20466,6 +24246,14 @@
           <t>Dean Robinson @ Tucker Ltd</t>
         </is>
       </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J477" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -20508,6 +24296,14 @@
           <t>William Carlson @ Allen Inc</t>
         </is>
       </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J478" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -20550,6 +24346,14 @@
           <t>Felicia Adams @ Barnett-Peters</t>
         </is>
       </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J479" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -20592,6 +24396,14 @@
           <t>Billy Mendez @ Watkins, Sanders and Barry</t>
         </is>
       </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J480" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -20634,6 +24446,14 @@
           <t>Blake Buck @ Miller, Howard and Burton</t>
         </is>
       </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J481" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -20676,6 +24496,14 @@
           <t>Alexis Shelton @ Durham Inc</t>
         </is>
       </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J482" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -20718,6 +24546,14 @@
           <t>John Pratt @ Shepard PLC</t>
         </is>
       </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J483" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -20760,6 +24596,14 @@
           <t>Edward Hardy @ Harris-Becker</t>
         </is>
       </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J484" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -20802,6 +24646,14 @@
           <t>Hunter Hardin @ Campos-Boyd</t>
         </is>
       </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J485" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -20844,6 +24696,14 @@
           <t>Travis Klein @ Barnett-Peters</t>
         </is>
       </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="J486" t="n">
+        <v>1532.17</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -20886,6 +24746,14 @@
           <t>Robert Haas @ Ramos-Montgomery</t>
         </is>
       </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J487" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -20928,6 +24796,14 @@
           <t>Lisa Campbell @ Suarez, Riddle and Black</t>
         </is>
       </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J488" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -20970,6 +24846,14 @@
           <t>Patrick Allen @ Diaz PLC</t>
         </is>
       </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J489" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -21012,6 +24896,14 @@
           <t>Donna Williams @ Shepard PLC</t>
         </is>
       </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J490" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -21054,6 +24946,14 @@
           <t>Tonya Rivas @ Casey-Stephenson</t>
         </is>
       </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="J491" t="n">
+        <v>2432.95</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -21096,6 +24996,14 @@
           <t>Aaron Perkins @ Gross-Kennedy</t>
         </is>
       </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J492" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -21138,6 +25046,14 @@
           <t>Melissa Young @ Durham Inc</t>
         </is>
       </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="J493" t="n">
+        <v>3543.66</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -21180,6 +25096,14 @@
           <t>Margaret Phillips @ Ballard Inc</t>
         </is>
       </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J494" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -21222,6 +25146,14 @@
           <t>Taylor Rogers @ Jones, Adkins and Robinson</t>
         </is>
       </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="J495" t="n">
+        <v>2343.95</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -21264,6 +25196,14 @@
           <t>Madison Austin @ Thomas, Love and Harris</t>
         </is>
       </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="J496" t="n">
+        <v>1070.37</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -21306,6 +25246,14 @@
           <t>Luis Bailey @ Cooper, Pineda and Whitney</t>
         </is>
       </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="J497" t="n">
+        <v>2173.5</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -21348,6 +25296,14 @@
           <t>Dean Richard @ Garcia, Lee and Williams</t>
         </is>
       </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="J498" t="n">
+        <v>1769.41</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -21390,6 +25346,14 @@
           <t>Jeffery Jones @ Massey Ltd</t>
         </is>
       </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J499" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -21432,6 +25396,14 @@
           <t>Ashley Johnson @ Russo, Moran and Hoffman</t>
         </is>
       </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="J500" t="n">
+        <v>2871.83</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -21474,6 +25446,14 @@
           <t>Lori Sullivan @ Perkins-Watkins</t>
         </is>
       </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="J501" t="n">
+        <v>2304.51</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -21515,6 +25495,14 @@
         <is>
           <t>Robert Hogan @ Raymond, Terry and Warner</t>
         </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+      <c r="J502" t="n">
+        <v>3660.33</v>
       </c>
     </row>
   </sheetData>
